--- a/Collections/EURO/Belgium/#EURO#Belgium#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="154">
   <si>
     <t>-</t>
   </si>
@@ -785,21 +785,6 @@
 Archangel Michael</t>
   </si>
   <si>
-    <t>Without mint symbol</t>
-  </si>
-  <si>
-    <t>Mint director symbol - Libra</t>
-  </si>
-  <si>
-    <t>Mint director symbol - Pen</t>
-  </si>
-  <si>
-    <t>Mint director symbol - Cat</t>
-  </si>
-  <si>
-    <t>Mint director symbol - Shield</t>
-  </si>
-  <si>
     <t>eurocollection</t>
   </si>
   <si>
@@ -825,6 +810,28 @@
   </si>
   <si>
     <t>Rev: Smooth map</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - 
+Archangel Michael</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Libra</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Pen</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Cat</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Shield</t>
+  </si>
+  <si>
+    <t>Obv: Without mint director symbol</t>
   </si>
 </sst>
 </file>
@@ -927,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1014,13 +1021,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,6 +1121,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1106,15 +1131,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="65">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1611,6 +1627,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1642,9 +1667,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="64"/>
+    <tableColumn id="2" name="Link" dataDxfId="63" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1913,13 +1938,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H6" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" ref="H4" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" ref="H7:H24" si="2">IF(OR(AND(G7&gt;1,G7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G23:G24">
+    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G6 G8:G9 G11:G12 G20:G22 G14:G18">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G6 G8:G9 G11:G12 G20:G22 G14:G18">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1948,7 +2739,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1976,58 +2767,62 @@
       <c r="B3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1">
+        <v>153</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G6" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
+      <c r="C4" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="str">
-        <f t="shared" ref="G4" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="C5" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="E5" s="22" t="s">
         <v>30</v>
       </c>
@@ -2041,19 +2836,21 @@
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C6" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -2063,438 +2860,577 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C7" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="shared" ref="G7:G24" si="2">IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I7" s="5"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="C8" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="E8" s="13" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I8" s="5"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="C9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="12"/>
+      <c r="C11" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="E11" s="13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1">
+        <v>148</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="1">
+        <v>150</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="1">
+        <v>152</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="1">
+        <v>152</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
+  <conditionalFormatting sqref="F23">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4 F7:F8 F10:F11 F13:F14 F16:F20">
+    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F8 F4 F10:F11 F13:F14 F16:F20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2506,132 +3442,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F6 F8:F9 F11:F12 F20:F22 F14:F18">
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F3 F8:F9 F11:F12 F20:F22 F14:F18">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -2639,7 +3456,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2668,7 +3485,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -2679,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>28</v>
@@ -2696,15 +3513,17 @@
       <c r="B3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -2719,14 +3538,16 @@
       <c r="B4" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C4" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="str">
@@ -2742,10 +3563,12 @@
       <c r="B5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="C5" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="E5" s="22" t="s">
         <v>30</v>
       </c>
@@ -2764,10 +3587,12 @@
       <c r="B6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="C6" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="E6" s="22" t="s">
         <v>32</v>
       </c>
@@ -2786,12 +3611,14 @@
       <c r="B7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="C7" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -2808,12 +3635,14 @@
       <c r="B8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="C8" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="E8" s="13" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -2830,14 +3659,16 @@
       <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="C9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -2852,12 +3683,14 @@
       <c r="B10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="12"/>
+      <c r="C10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="E10" s="13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -2874,14 +3707,16 @@
       <c r="B11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="C11" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="str">
@@ -2897,10 +3732,10 @@
         <v>134</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>38</v>
@@ -2921,15 +3756,15 @@
         <v>133</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1">
+        <v>149</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="str">
@@ -2945,13 +3780,13 @@
         <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2969,15 +3804,15 @@
         <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="str">
@@ -2993,13 +3828,13 @@
         <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3017,13 +3852,13 @@
         <v>133</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -3041,13 +3876,13 @@
         <v>135</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -3065,13 +3900,13 @@
         <v>135</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -3089,13 +3924,13 @@
         <v>135</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -3113,15 +3948,15 @@
         <v>135</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="str">
@@ -3137,15 +3972,15 @@
         <v>135</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="str">
@@ -3161,738 +3996,10 @@
         <v>135</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F7:F8 F10:F11 F13:F14 F16:F20">
-    <cfRule type="containsText" dxfId="55" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F8 F4 F10:F11 F13:F14 F16:F20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G23" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>80</v>
@@ -3912,7 +4019,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3929,7 +4036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 F7:F10 F14:F23">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3946,7 +4053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3963,7 +4070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3980,7 +4087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3997,7 +4104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4014,7 +4121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4044,7 +4151,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4105,13 +4212,15 @@
       <c r="B3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F3" s="13" t="s">
         <v>81</v>
       </c>
@@ -4131,13 +4240,15 @@
       <c r="B4" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
+      <c r="C4" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F4" s="22" t="s">
         <v>30</v>
       </c>
@@ -4157,13 +4268,15 @@
       <c r="B5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
+      <c r="C5" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F5" s="13" t="s">
         <v>82</v>
       </c>
@@ -4182,13 +4295,15 @@
       <c r="B6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
+      <c r="C6" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F6" s="22" t="s">
         <v>32</v>
       </c>
@@ -4207,13 +4322,15 @@
       <c r="B7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>138</v>
+      <c r="C7" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F7" s="22" t="s">
         <v>83</v>
       </c>
@@ -4232,13 +4349,15 @@
       <c r="B8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
+      <c r="C8" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>84</v>
       </c>
@@ -4257,13 +4376,15 @@
       <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>138</v>
+      <c r="C9" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>85</v>
       </c>
@@ -4282,13 +4403,15 @@
       <c r="B10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
+      <c r="C10" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F10" s="22" t="s">
         <v>86</v>
       </c>
@@ -4307,13 +4430,15 @@
       <c r="B11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
+      <c r="C11" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F11" s="22" t="s">
         <v>70</v>
       </c>
@@ -4333,13 +4458,13 @@
         <v>134</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>38</v>
@@ -4360,13 +4485,13 @@
         <v>133</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>71</v>
@@ -4387,13 +4512,13 @@
         <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>57</v>
@@ -4414,13 +4539,13 @@
         <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>72</v>
@@ -4441,13 +4566,13 @@
         <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>87</v>
@@ -4468,13 +4593,13 @@
         <v>133</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>88</v>
@@ -4495,13 +4620,13 @@
         <v>135</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>44</v>
@@ -4522,13 +4647,13 @@
         <v>135</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>89</v>
@@ -4549,13 +4674,13 @@
         <v>135</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>90</v>
@@ -4576,13 +4701,13 @@
         <v>135</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>91</v>
@@ -4603,13 +4728,13 @@
         <v>135</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>92</v>
@@ -4630,13 +4755,13 @@
         <v>135</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>93</v>
@@ -4656,7 +4781,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4673,11 +4798,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G8:G9 G19 G14:G17 G21:G23">
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G3 G8:G9 G19 G14:G17 G21:G23">
+  <conditionalFormatting sqref="G3 G5 G8:G9 G19 G14:G17 G21:G23">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4690,7 +4815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4707,7 +4832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4724,7 +4849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4741,7 +4866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4758,7 +4883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4775,7 +4900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4792,7 +4917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4809,7 +4934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4833,13 +4958,796 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
+    <col min="4" max="6" width="24.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I24" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" ref="I7" si="1">IF(OR(AND(H7&gt;1,H7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H18:H23">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H24 H6 H8:H17">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H24 H6 H8:H17">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4868,8 +5776,8 @@
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>13</v>
+      <c r="G1" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -4900,22 +5808,24 @@
       <c r="B3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
+      <c r="E3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H24" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -4926,18 +5836,20 @@
       <c r="B4" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
+      <c r="C4" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="E4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4952,13 +5864,15 @@
       <c r="B5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
+      <c r="C5" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F5" s="22" t="s">
         <v>30</v>
       </c>
@@ -4977,17 +5891,17 @@
       <c r="B6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
+      <c r="C6" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -4999,47 +5913,49 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>138</v>
+      <c r="C7" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="1">
+        <v>153</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f t="shared" ref="H7" si="1">IF(OR(AND(G7&gt;1,G7&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
+      <c r="C8" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F8" s="13" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -5051,22 +5967,24 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>138</v>
+      <c r="C9" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -5076,23 +5994,25 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
+      <c r="C10" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
+      <c r="E10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5101,20 +6021,22 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
+      <c r="C11" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F11" s="13" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -5126,20 +6048,22 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="F12" s="13" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5151,22 +6075,22 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5178,25 +6102,25 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5205,22 +6129,22 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -5232,22 +6156,22 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -5259,24 +6183,24 @@
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="1">
+        <v>151</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="3" t="str">
@@ -5286,24 +6210,24 @@
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="str">
@@ -5313,24 +6237,24 @@
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="str">
@@ -5340,24 +6264,24 @@
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="3" t="str">
@@ -5367,24 +6291,24 @@
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="3" t="str">
@@ -5394,22 +6318,22 @@
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -5421,54 +6345,27 @@
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="1">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5479,12 +6376,148 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:G23">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G23">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 G6 G15:G16 G3 G23 G18:G21 G11:G13">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8 G15:G16 G3 G23 G18:G21 G11:G13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5496,81 +6529,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G24 G6 G8:G17">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G4 G6 G8:G17">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -5578,7 +6543,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5607,8 +6572,8 @@
       <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>14</v>
+      <c r="G1" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="H1" s="2"/>
     </row>
@@ -5639,22 +6604,24 @@
       <c r="B3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F3" s="13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3" t="str">
         <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -5665,13 +6632,15 @@
       <c r="B4" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
+      <c r="C4" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F4" s="22" t="s">
         <v>30</v>
       </c>
@@ -5682,6 +6651,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="I4" s="14"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5691,13 +6661,15 @@
       <c r="B5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
+      <c r="C5" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F5" s="22" t="s">
         <v>30</v>
       </c>
@@ -5716,18 +6688,20 @@
       <c r="B6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
+      <c r="C6" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F6" s="13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5741,17 +6715,19 @@
       <c r="B7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>138</v>
+      <c r="C7" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="str">
@@ -5766,18 +6742,20 @@
       <c r="B8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
+      <c r="C8" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>109</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5791,13 +6769,15 @@
       <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>138</v>
+      <c r="C9" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F9" s="22" t="s">
         <v>35</v>
       </c>
@@ -5816,13 +6796,15 @@
       <c r="B10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
+      <c r="C10" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F10" s="22" t="s">
         <v>86</v>
       </c>
@@ -5841,17 +6823,19 @@
       <c r="B11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
+      <c r="C11" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="3" t="str">
@@ -5867,16 +6851,16 @@
         <v>134</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -5894,16 +6878,16 @@
         <v>133</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -5921,13 +6905,13 @@
         <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>58</v>
@@ -5948,13 +6932,13 @@
         <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>113</v>
@@ -5975,16 +6959,16 @@
         <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -6002,13 +6986,13 @@
         <v>133</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>104</v>
@@ -6029,18 +7013,18 @@
         <v>135</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="1">
+        <v>151</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="str">
@@ -6056,18 +7040,18 @@
         <v>135</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="1">
+        <v>151</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="str">
@@ -6083,18 +7067,18 @@
         <v>135</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="1">
+        <v>151</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="3" t="str">
@@ -6110,18 +7094,18 @@
         <v>135</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="1">
+        <v>152</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="3" t="str">
@@ -6137,13 +7121,13 @@
         <v>135</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>48</v>
@@ -6164,18 +7148,18 @@
         <v>135</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="1">
+        <v>152</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="str">
@@ -6189,12 +7173,12 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G17:G23">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6206,29 +7190,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8 G6 G15:G16 G3 G23 G18:G21 G11:G13">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G6:G8 G15:G16 G12:G13 G3">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8 G6 G15:G16 G3 G23 G18:G21 G11:G13">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G6:G8 G15:G16 G12:G13 G3">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6240,12 +7207,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6257,12 +7224,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6275,7 +7242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6292,7 +7259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6308,770 +7275,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
-        <v>1999</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H23" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>2004</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>2005</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>2006</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>2012</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G17:G23">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G23">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G15:G16 G12:G13 G3">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G15:G16 G12:G13 G3">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7088,7 +7293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7118,7 +7323,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7166,7 +7371,7 @@
         <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>28</v>
@@ -7183,13 +7388,15 @@
       <c r="B3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>138</v>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F3" s="12"/>
       <c r="G3" s="22" t="s">
         <v>50</v>
@@ -7210,13 +7417,15 @@
       <c r="B4" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>138</v>
+      <c r="C4" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F4" s="12"/>
       <c r="G4" s="13" t="s">
         <v>124</v>
@@ -7238,13 +7447,15 @@
       <c r="B5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>138</v>
+      <c r="C5" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="22" t="s">
         <v>30</v>
@@ -7264,13 +7475,15 @@
       <c r="B6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>138</v>
+      <c r="C6" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13" t="s">
         <v>108</v>
@@ -7290,13 +7503,15 @@
       <c r="B7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>138</v>
+      <c r="C7" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="13" t="s">
         <v>66</v>
@@ -7316,13 +7531,15 @@
       <c r="B8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>138</v>
+      <c r="C8" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="13" t="s">
         <v>125</v>
@@ -7342,13 +7559,15 @@
       <c r="B9" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>138</v>
+      <c r="C9" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="13" t="s">
         <v>126</v>
@@ -7368,13 +7587,15 @@
       <c r="B10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>138</v>
+      <c r="C10" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13" t="s">
         <v>127</v>
@@ -7394,13 +7615,15 @@
       <c r="B11" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
+      <c r="C11" s="30" t="s">
+        <v>147</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13" t="s">
         <v>128</v>
@@ -7421,16 +7644,16 @@
         <v>134</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>129</v>
@@ -7451,19 +7674,19 @@
         <v>134</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -7481,13 +7704,13 @@
         <v>133</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13" t="s">
@@ -7509,13 +7732,13 @@
         <v>133</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13" t="s">
@@ -7537,13 +7760,13 @@
         <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13" t="s">
@@ -7565,13 +7788,13 @@
         <v>133</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="22" t="s">
@@ -7593,13 +7816,13 @@
         <v>133</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="22" t="s">
@@ -7621,13 +7844,13 @@
         <v>135</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="22" t="s">
@@ -7649,13 +7872,13 @@
         <v>135</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="22" t="s">
@@ -7677,13 +7900,13 @@
         <v>135</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="22" t="s">
@@ -7705,13 +7928,13 @@
         <v>135</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="22" t="s">
@@ -7733,13 +7956,13 @@
         <v>135</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="22" t="s">
@@ -7767,7 +7990,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="13" t="s">
@@ -7788,7 +8011,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:H23">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7805,7 +8028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 H6:H12 H24 H14:H16">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7822,7 +8045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7839,7 +8062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7856,7 +8079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7882,7 +8105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7956,10 +8179,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7967,10 +8190,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0376F2B0-325E-497D-9494-8DC65FFC1336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F482FA75-41EA-4FEB-B057-E1719CC848DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -634,15 +634,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="162">
   <si>
     <t>-</t>
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Type</t>
@@ -1106,114 +1103,6 @@
     <t>Obv: Mint director symbol - Aster flower</t>
   </si>
   <si>
-    <t>МД</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>5c</t>
-  </si>
-  <si>
-    <t>10c</t>
-  </si>
-  <si>
-    <t>20c</t>
-  </si>
-  <si>
-    <t>50c</t>
-  </si>
-  <si>
-    <t>2€ CC1</t>
-  </si>
-  <si>
-    <t>2€ CC2</t>
-  </si>
-  <si>
-    <t>2€ CC3</t>
-  </si>
-  <si>
-    <t>выпуск</t>
-  </si>
-  <si>
-    <t>кач-во</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>----- </t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>6.023.000</t>
-  </si>
-  <si>
-    <t>5.023.000</t>
-  </si>
-  <si>
-    <t>5.040.000</t>
-  </si>
-  <si>
-    <t>5.018.000</t>
-  </si>
-  <si>
-    <t>5.013.500</t>
-  </si>
-  <si>
-    <t>5.012.000</t>
-  </si>
-  <si>
-    <t>5.013.000</t>
-  </si>
-  <si>
-    <t>2.010.000</t>
-  </si>
-  <si>
-    <t>1.709.038</t>
-  </si>
-  <si>
-    <t>287.499</t>
-  </si>
-  <si>
-    <t>243.719</t>
-  </si>
-  <si>
-    <t>407.875</t>
-  </si>
-  <si>
-    <t>203.323</t>
-  </si>
-  <si>
-    <t>1.014.346</t>
-  </si>
-  <si>
-    <t>194.874</t>
-  </si>
-  <si>
-    <t>164.708</t>
-  </si>
-  <si>
-    <t>257.500</t>
-  </si>
-  <si>
-    <t>258.000</t>
-  </si>
-  <si>
-    <t>155.250</t>
-  </si>
-  <si>
-    <t>155.000</t>
-  </si>
-  <si>
-    <t>755.000</t>
-  </si>
-  <si>
     <t>13.750</t>
   </si>
   <si>
@@ -1223,12 +1112,6 @@
     <t>34.913.500</t>
   </si>
   <si>
-    <t>2.155.000</t>
-  </si>
-  <si>
-    <t>1.000.000</t>
-  </si>
-  <si>
     <t>15.500</t>
   </si>
   <si>
@@ -1238,13 +1121,7 @@
     <t>7.515.500</t>
   </si>
   <si>
-    <t>17.015.500</t>
-  </si>
-  <si>
-    <t>130.000</t>
-  </si>
-  <si>
-    <t>Источник: https://www.euro-coins.info/tirazhi-monet-evro-belgii-regulyarnogo-vypuska-i-pamyatnyh-2-evro</t>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1559,6 +1436,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,7 +1479,6 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1609,6 +1486,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="98">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2369,15 +2255,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2409,9 +2286,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="96" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2682,11 +2559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2701,50 +2578,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -2753,19 +2630,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
@@ -2786,19 +2663,19 @@
         <v>1999</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>0</v>
@@ -2819,17 +2696,17 @@
         <v>2000</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>0</v>
@@ -2850,17 +2727,17 @@
         <v>2001</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>0</v>
@@ -2881,17 +2758,17 @@
         <v>2002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>0</v>
@@ -2913,17 +2790,17 @@
         <v>2003</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>0</v>
@@ -2945,17 +2822,17 @@
         <v>2004</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>0</v>
@@ -2976,17 +2853,17 @@
         <v>2005</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>0</v>
@@ -3007,17 +2884,17 @@
         <v>2006</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>0</v>
@@ -3038,17 +2915,17 @@
         <v>2007</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>0</v>
@@ -3069,17 +2946,17 @@
         <v>2008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>0</v>
@@ -3100,17 +2977,17 @@
         <v>2009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -3131,17 +3008,17 @@
         <v>2010</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>0</v>
@@ -3162,17 +3039,17 @@
         <v>2011</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>0</v>
@@ -3193,17 +3070,17 @@
         <v>2012</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>0</v>
@@ -3224,17 +3101,17 @@
         <v>2013</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>0</v>
@@ -3255,17 +3132,17 @@
         <v>2014</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>0</v>
@@ -3286,17 +3163,17 @@
         <v>2015</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>0</v>
@@ -3317,17 +3194,17 @@
         <v>2016</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>0</v>
@@ -3348,17 +3225,17 @@
         <v>2017</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>0</v>
@@ -3379,20 +3256,20 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>0</v>
@@ -3410,20 +3287,20 @@
         <v>2019</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>0</v>
@@ -3441,20 +3318,20 @@
         <v>2020</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>0</v>
@@ -3472,20 +3349,20 @@
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>0</v>
@@ -3503,20 +3380,20 @@
         <v>2022</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>0</v>
@@ -3534,20 +3411,20 @@
         <v>2023</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>0</v>
@@ -3570,7 +3447,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="containsText" dxfId="94" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3587,11 +3464,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 H6 H8:H9 H11:H12 H20:H22 H14:H18">
-    <cfRule type="containsText" dxfId="93" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H6 H8:H9 H11:H12 H20:H22 H14:H18">
+  <conditionalFormatting sqref="H6 H3 H8:H9 H11:H12 H20:H22 H14:H18">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3604,7 +3481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="92" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3621,7 +3498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="91" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3638,7 +3515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="90" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3655,7 +3532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="89" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3672,7 +3549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="88" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3689,7 +3566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3706,7 +3583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I28">
-    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3723,7 +3600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3753,7 +3630,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3768,46 +3645,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3816,16 +3693,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>0</v>
@@ -3847,16 +3724,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>0</v>
@@ -3868,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I25" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I4:I24" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="K4" s="5"/>
@@ -3878,16 +3755,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>0</v>
@@ -3908,16 +3785,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>0</v>
@@ -3938,16 +3815,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>0</v>
@@ -3968,16 +3845,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>0</v>
@@ -3998,16 +3875,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>0</v>
@@ -4028,16 +3905,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>0</v>
@@ -4058,16 +3935,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>0</v>
@@ -4088,16 +3965,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>0</v>
@@ -4118,16 +3995,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>0</v>
@@ -4148,16 +4025,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>0</v>
@@ -4178,16 +4055,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>0</v>
@@ -4208,16 +4085,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>0</v>
@@ -4238,16 +4115,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>0</v>
@@ -4268,16 +4145,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>0</v>
@@ -4298,16 +4175,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>0</v>
@@ -4328,16 +4205,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>0</v>
@@ -4358,16 +4235,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>0</v>
@@ -4388,19 +4265,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -4418,19 +4295,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -4448,19 +4325,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -4478,19 +4355,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -4508,19 +4385,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -4538,19 +4415,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -4573,7 +4450,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="84" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4590,7 +4467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G7:G8 G10:G11 G13:G14 G16:G20">
-    <cfRule type="containsText" dxfId="83" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4607,7 +4484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="82" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4624,7 +4501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="81" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4641,7 +4518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4658,7 +4535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4675,7 +4552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4692,7 +4569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4709,7 +4586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="76" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4726,7 +4603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="75" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4743,7 +4620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4760,7 +4637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H27">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4790,7 +4667,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4805,46 +4682,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4853,16 +4730,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>0</v>
@@ -4884,16 +4761,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>0</v>
@@ -4915,16 +4792,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>0</v>
@@ -4945,16 +4822,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>0</v>
@@ -4975,16 +4852,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>0</v>
@@ -5005,16 +4882,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>0</v>
@@ -5035,16 +4912,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>0</v>
@@ -5065,16 +4942,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>0</v>
@@ -5095,16 +4972,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>0</v>
@@ -5125,16 +5002,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>0</v>
@@ -5155,16 +5032,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>0</v>
@@ -5185,16 +5062,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>0</v>
@@ -5215,16 +5092,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>0</v>
@@ -5245,16 +5122,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>0</v>
@@ -5275,16 +5152,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>0</v>
@@ -5305,16 +5182,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>0</v>
@@ -5335,16 +5212,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>0</v>
@@ -5365,16 +5242,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>0</v>
@@ -5395,16 +5272,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>0</v>
@@ -5425,19 +5302,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -5455,19 +5332,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -5485,19 +5362,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -5515,19 +5392,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -5545,19 +5422,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -5575,19 +5452,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -5610,7 +5487,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5627,7 +5504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G7:G10 G14:G21 H22:H23">
-    <cfRule type="containsText" dxfId="71" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5644,7 +5521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="70" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5661,7 +5538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="69" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5678,7 +5555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="68" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5695,7 +5572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5712,7 +5589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="66" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5729,7 +5606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:G27">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5746,7 +5623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H21">
-    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5763,7 +5640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5780,7 +5657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5797,7 +5674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H25">
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5814,7 +5691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5831,7 +5708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5861,7 +5738,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5876,50 +5753,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -5928,19 +5805,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
@@ -5962,19 +5839,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>0</v>
@@ -5996,19 +5873,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>0</v>
@@ -6029,19 +5906,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>0</v>
@@ -6062,19 +5939,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>0</v>
@@ -6095,19 +5972,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>0</v>
@@ -6128,19 +6005,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>0</v>
@@ -6161,19 +6038,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>0</v>
@@ -6194,19 +6071,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>0</v>
@@ -6227,19 +6104,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>0</v>
@@ -6260,19 +6137,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>0</v>
@@ -6293,19 +6170,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -6326,19 +6203,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>0</v>
@@ -6359,19 +6236,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>0</v>
@@ -6392,19 +6269,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>0</v>
@@ -6425,19 +6302,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>0</v>
@@ -6458,19 +6335,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>0</v>
@@ -6491,19 +6368,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>0</v>
@@ -6524,19 +6401,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>0</v>
@@ -6557,22 +6434,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
@@ -6590,22 +6467,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -6623,22 +6500,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -6656,22 +6533,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
@@ -6689,22 +6566,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -6722,22 +6599,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
@@ -6760,7 +6637,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6777,11 +6654,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 H5 H8:H9 H19 H14:H17 H21 I22:I23">
-    <cfRule type="containsText" dxfId="59" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H8:H9 H19 H14:H17 H21 I22:I23">
+  <conditionalFormatting sqref="H5 H3 H8:H9 H19 H14:H17 H21 I22:I23">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6794,7 +6671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="58" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6811,7 +6688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="57" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6828,7 +6705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6845,7 +6722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="55" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6862,7 +6739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="54" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6879,7 +6756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="53" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6896,7 +6773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="52" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6913,7 +6790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6930,7 +6807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6947,7 +6824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6964,7 +6841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H27">
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6981,7 +6858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I26">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6998,7 +6875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I21">
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7015,7 +6892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7045,7 +6922,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7060,52 +6937,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -7114,20 +6991,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>0</v>
@@ -7149,20 +7026,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>0</v>
@@ -7184,20 +7061,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>0</v>
@@ -7218,22 +7095,22 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>0</v>
@@ -7254,22 +7131,22 @@
         <v>2002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>0</v>
@@ -7290,20 +7167,20 @@
         <v>2003</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>0</v>
@@ -7324,20 +7201,20 @@
         <v>2004</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>0</v>
@@ -7358,20 +7235,20 @@
         <v>2005</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>0</v>
@@ -7392,20 +7269,20 @@
         <v>2006</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>0</v>
@@ -7426,20 +7303,20 @@
         <v>2007</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>0</v>
@@ -7460,20 +7337,20 @@
         <v>2008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>0</v>
@@ -7494,20 +7371,20 @@
         <v>2009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>0</v>
@@ -7528,20 +7405,20 @@
         <v>2010</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>0</v>
@@ -7562,20 +7439,20 @@
         <v>2011</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>0</v>
@@ -7596,20 +7473,20 @@
         <v>2012</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>0</v>
@@ -7630,20 +7507,20 @@
         <v>2013</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>0</v>
@@ -7664,20 +7541,20 @@
         <v>2014</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>0</v>
@@ -7698,20 +7575,20 @@
         <v>2015</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>0</v>
@@ -7732,20 +7609,20 @@
         <v>2016</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>0</v>
@@ -7766,20 +7643,20 @@
         <v>2017</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="27" t="s">
         <v>0</v>
@@ -7800,23 +7677,23 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>0</v>
@@ -7834,23 +7711,23 @@
         <v>2019</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>0</v>
@@ -7868,23 +7745,23 @@
         <v>2020</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>0</v>
@@ -7902,23 +7779,23 @@
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>0</v>
@@ -7936,23 +7813,23 @@
         <v>2022</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>0</v>
@@ -7970,23 +7847,23 @@
         <v>2023</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
@@ -8029,7 +7906,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 I6 I8:I17 J24">
+  <conditionalFormatting sqref="I6 I4 I8:I17 J24">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8195,7 +8072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8225,7 +8102,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8240,50 +8117,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -8292,19 +8169,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
@@ -8326,19 +8203,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>0</v>
@@ -8350,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4:J25" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J4:J24" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="L4" s="5"/>
@@ -8360,19 +8237,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>0</v>
@@ -8393,19 +8270,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>0</v>
@@ -8426,19 +8303,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>0</v>
@@ -8459,19 +8336,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>0</v>
@@ -8492,19 +8369,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>0</v>
@@ -8525,19 +8402,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>0</v>
@@ -8558,19 +8435,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>0</v>
@@ -8591,19 +8468,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>0</v>
@@ -8624,19 +8501,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>0</v>
@@ -8657,19 +8534,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -8690,19 +8567,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>0</v>
@@ -8723,19 +8600,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>0</v>
@@ -8756,19 +8633,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>0</v>
@@ -8789,19 +8666,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>0</v>
@@ -8822,19 +8699,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>0</v>
@@ -8855,19 +8732,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>0</v>
@@ -8888,19 +8765,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>0</v>
@@ -8921,22 +8798,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
@@ -8954,22 +8831,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -8987,22 +8864,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -9020,22 +8897,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
@@ -9053,22 +8930,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -9086,22 +8963,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
@@ -9124,7 +9001,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9141,11 +9018,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H6 H15:H16 H3 H18:H21 H11:H13 I23">
-    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H15:H16 H3 H18:H21 H11:H13 I23">
+  <conditionalFormatting sqref="H8 H6 H15:H16 H3 H18:H21 H11:H13 I23">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9158,7 +9035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9175,7 +9052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9192,7 +9069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9209,7 +9086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9226,7 +9103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9243,7 +9120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I22 I3:I21">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9260,7 +9137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9277,7 +9154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I27">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9294,7 +9171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H27">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9311,7 +9188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H23))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9341,7 +9218,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9356,50 +9233,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -9408,19 +9285,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
@@ -9441,19 +9318,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>0</v>
@@ -9465,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4:J25" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="J4:J24" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="K4" s="12"/>
@@ -9475,19 +9352,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>0</v>
@@ -9508,19 +9385,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>0</v>
@@ -9541,19 +9418,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>0</v>
@@ -9574,19 +9451,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>0</v>
@@ -9607,19 +9484,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>0</v>
@@ -9640,19 +9517,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>0</v>
@@ -9673,19 +9550,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>0</v>
@@ -9706,19 +9583,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>0</v>
@@ -9739,19 +9616,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>0</v>
@@ -9772,19 +9649,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -9805,19 +9682,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>0</v>
@@ -9838,19 +9715,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>0</v>
@@ -9871,19 +9748,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>0</v>
@@ -9904,19 +9781,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>0</v>
@@ -9937,19 +9814,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>0</v>
@@ -9970,19 +9847,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>0</v>
@@ -10003,19 +9880,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>0</v>
@@ -10036,22 +9913,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
@@ -10069,22 +9946,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -10102,22 +9979,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -10135,22 +10012,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
@@ -10168,22 +10045,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -10201,22 +10078,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
@@ -10239,7 +10116,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="H17:H23">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10256,7 +10133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H8 H15:H16 H12:H13 H3">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10273,7 +10150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10290,7 +10167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10307,7 +10184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10324,7 +10201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10341,7 +10218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10358,7 +10235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10375,7 +10252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I23 H24:I27">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10399,13 +10276,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40:O43"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10419,77 +10296,77 @@
     <col min="11" max="11" width="13.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="42">
+        <v>2</v>
+      </c>
+      <c r="J1" s="41"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="41">
-        <v>2</v>
-      </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>0</v>
@@ -10506,25 +10383,25 @@
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>0</v>
@@ -10542,25 +10419,25 @@
       <c r="L4" s="12"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>0</v>
@@ -10576,25 +10453,25 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>0</v>
@@ -10610,25 +10487,25 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>0</v>
@@ -10644,25 +10521,25 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>0</v>
@@ -10678,25 +10555,25 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>0</v>
@@ -10712,25 +10589,25 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>0</v>
@@ -10746,25 +10623,25 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>0</v>
@@ -10780,27 +10657,27 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>0</v>
@@ -10816,27 +10693,27 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>2008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>0</v>
@@ -10852,25 +10729,25 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>2009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>0</v>
@@ -10886,25 +10763,25 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>2010</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>0</v>
@@ -10920,25 +10797,25 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>2011</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>0</v>
@@ -10953,71 +10830,28 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N16" t="s">
-        <v>156</v>
-      </c>
-      <c r="O16" t="s">
-        <v>157</v>
-      </c>
-      <c r="P16" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>159</v>
-      </c>
-      <c r="R16" t="s">
-        <v>160</v>
-      </c>
-      <c r="S16" t="s">
-        <v>161</v>
-      </c>
-      <c r="T16" t="s">
-        <v>162</v>
-      </c>
-      <c r="U16" s="42">
-        <v>1</v>
-      </c>
-      <c r="V16" s="42">
-        <v>2</v>
-      </c>
-      <c r="X16" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>2012</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>0</v>
@@ -11032,68 +10866,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M17">
-        <v>1999</v>
-      </c>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" t="s">
-        <v>49</v>
-      </c>
-      <c r="T17" t="s">
-        <v>106</v>
-      </c>
-      <c r="U17" t="s">
-        <v>118</v>
-      </c>
-      <c r="V17" t="s">
-        <v>49</v>
-      </c>
-      <c r="X17" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>2013</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>0</v>
@@ -11108,68 +10900,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M18">
-        <v>2000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" t="s">
-        <v>93</v>
-      </c>
-      <c r="T18" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" t="s">
-        <v>123</v>
-      </c>
-      <c r="X18" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>2014</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>0</v>
@@ -11184,68 +10934,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M19">
-        <v>2001</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" t="s">
-        <v>81</v>
-      </c>
-      <c r="S19" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" t="s">
-        <v>29</v>
-      </c>
-      <c r="X19" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>2015</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>0</v>
@@ -11260,68 +10968,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20">
-        <v>2002</v>
-      </c>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R20" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" t="s">
-        <v>94</v>
-      </c>
-      <c r="T20" t="s">
-        <v>107</v>
-      </c>
-      <c r="U20" t="s">
-        <v>119</v>
-      </c>
-      <c r="V20" t="s">
-        <v>107</v>
-      </c>
-      <c r="X20" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>2016</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>0</v>
@@ -11336,68 +11002,26 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M21">
-        <v>2003</v>
-      </c>
-      <c r="N21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>65</v>
-      </c>
-      <c r="R21" t="s">
-        <v>82</v>
-      </c>
-      <c r="S21" t="s">
-        <v>65</v>
-      </c>
-      <c r="T21" t="s">
-        <v>82</v>
-      </c>
-      <c r="U21" t="s">
-        <v>120</v>
-      </c>
-      <c r="V21" t="s">
-        <v>65</v>
-      </c>
-      <c r="X21" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2017</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="27" t="s">
         <v>0</v>
@@ -11412,71 +11036,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M22">
-        <v>2004</v>
-      </c>
-      <c r="N22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" t="s">
-        <v>83</v>
-      </c>
-      <c r="S22" t="s">
-        <v>95</v>
-      </c>
-      <c r="T22" t="s">
-        <v>108</v>
-      </c>
-      <c r="U22" t="s">
-        <v>108</v>
-      </c>
-      <c r="V22" t="s">
-        <v>124</v>
-      </c>
-      <c r="X22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>0</v>
@@ -11488,71 +11070,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M23">
-        <v>2005</v>
-      </c>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R23" t="s">
-        <v>84</v>
-      </c>
-      <c r="S23" t="s">
-        <v>84</v>
-      </c>
-      <c r="T23" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" t="s">
-        <v>34</v>
-      </c>
-      <c r="V23" t="s">
-        <v>125</v>
-      </c>
-      <c r="X23" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>2019</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>0</v>
@@ -11564,74 +11104,31 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M24" t="s">
-        <v>156</v>
-      </c>
-      <c r="N24" t="s">
-        <v>157</v>
-      </c>
-      <c r="O24" t="s">
-        <v>158</v>
-      </c>
-      <c r="P24" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>160</v>
-      </c>
-      <c r="R24" t="s">
-        <v>161</v>
-      </c>
-      <c r="S24" t="s">
-        <v>162</v>
-      </c>
-      <c r="T24" s="42">
-        <v>1</v>
-      </c>
-      <c r="U24" s="42">
-        <v>2</v>
-      </c>
-      <c r="W24" t="s">
-        <v>163</v>
-      </c>
-      <c r="X24" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>2020</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>0</v>
@@ -11643,71 +11140,29 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M25">
-        <v>2006</v>
-      </c>
-      <c r="N25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" t="s">
-        <v>85</v>
-      </c>
-      <c r="S25" t="s">
-        <v>96</v>
-      </c>
-      <c r="T25" t="s">
-        <v>85</v>
-      </c>
-      <c r="U25" t="s">
-        <v>85</v>
-      </c>
-      <c r="V25" t="s">
-        <v>126</v>
-      </c>
-      <c r="X25" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>0</v>
@@ -11719,71 +11174,29 @@
         <f t="shared" ref="K26" si="1">IF(OR(AND(I26&gt;1,I26&lt;&gt;"-"),AND(J26&gt;1,J26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="M26">
-        <v>2007</v>
-      </c>
-      <c r="N26" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>69</v>
-      </c>
-      <c r="R26" t="s">
-        <v>69</v>
-      </c>
-      <c r="S26" t="s">
-        <v>97</v>
-      </c>
-      <c r="T26" t="s">
-        <v>109</v>
-      </c>
-      <c r="U26" t="s">
-        <v>69</v>
-      </c>
-      <c r="V26" t="s">
-        <v>127</v>
-      </c>
-      <c r="X26" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>2022</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>0</v>
@@ -11795,71 +11208,29 @@
         <f t="shared" ref="K27:K28" si="2">IF(OR(AND(I27&gt;1,I27&lt;&gt;"-"),AND(J27&gt;1,J27&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="M27">
-        <v>2008</v>
-      </c>
-      <c r="N27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" t="s">
-        <v>98</v>
-      </c>
-      <c r="T27" t="s">
-        <v>110</v>
-      </c>
-      <c r="U27" t="s">
-        <v>121</v>
-      </c>
-      <c r="V27" t="s">
-        <v>128</v>
-      </c>
-      <c r="X27" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>2023</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
@@ -11871,763 +11242,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M28">
-        <v>2009</v>
-      </c>
-      <c r="N28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>70</v>
-      </c>
-      <c r="R28" t="s">
-        <v>70</v>
-      </c>
-      <c r="S28" t="s">
-        <v>99</v>
-      </c>
-      <c r="T28" t="s">
-        <v>111</v>
-      </c>
-      <c r="U28" t="s">
-        <v>55</v>
-      </c>
-      <c r="V28" t="s">
-        <v>55</v>
-      </c>
-      <c r="X28" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M29">
-        <v>2010</v>
-      </c>
-      <c r="N29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>71</v>
-      </c>
-      <c r="R29" t="s">
-        <v>56</v>
-      </c>
-      <c r="S29" t="s">
-        <v>100</v>
-      </c>
-      <c r="T29" t="s">
-        <v>57</v>
-      </c>
-      <c r="U29" t="s">
-        <v>57</v>
-      </c>
-      <c r="V29" t="s">
-        <v>112</v>
-      </c>
-      <c r="X29" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M30">
-        <v>2011</v>
-      </c>
-      <c r="N30" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>71</v>
-      </c>
-      <c r="R30" t="s">
-        <v>71</v>
-      </c>
-      <c r="S30" t="s">
-        <v>101</v>
-      </c>
-      <c r="T30" t="s">
-        <v>112</v>
-      </c>
-      <c r="U30" t="s">
-        <v>112</v>
-      </c>
-      <c r="V30" t="s">
-        <v>129</v>
-      </c>
-      <c r="X30" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M31">
-        <v>2012</v>
-      </c>
-      <c r="N31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" t="s">
-        <v>41</v>
-      </c>
-      <c r="P31" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>72</v>
-      </c>
-      <c r="R31" t="s">
-        <v>86</v>
-      </c>
-      <c r="S31" t="s">
-        <v>102</v>
-      </c>
-      <c r="T31" t="s">
-        <v>113</v>
-      </c>
-      <c r="U31" t="s">
-        <v>122</v>
-      </c>
-      <c r="V31" t="s">
-        <v>130</v>
-      </c>
-      <c r="X31" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N32" t="s">
-        <v>156</v>
-      </c>
-      <c r="O32" t="s">
-        <v>157</v>
-      </c>
-      <c r="P32" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>159</v>
-      </c>
-      <c r="R32" t="s">
-        <v>160</v>
-      </c>
-      <c r="S32" t="s">
-        <v>161</v>
-      </c>
-      <c r="T32" t="s">
-        <v>162</v>
-      </c>
-      <c r="U32" s="42">
-        <v>1</v>
-      </c>
-      <c r="V32" s="42">
-        <v>2</v>
-      </c>
-      <c r="X32" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M33">
-        <v>2013</v>
-      </c>
-      <c r="N33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" t="s">
-        <v>42</v>
-      </c>
-      <c r="P33" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>73</v>
-      </c>
-      <c r="R33" t="s">
-        <v>87</v>
-      </c>
-      <c r="S33" t="s">
-        <v>103</v>
-      </c>
-      <c r="T33" t="s">
-        <v>103</v>
-      </c>
-      <c r="U33" t="s">
-        <v>103</v>
-      </c>
-      <c r="V33" t="s">
-        <v>103</v>
-      </c>
-      <c r="X33" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M34">
-        <v>2014</v>
-      </c>
-      <c r="N34" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>74</v>
-      </c>
-      <c r="R34" t="s">
-        <v>43</v>
-      </c>
-      <c r="S34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T34" t="s">
-        <v>114</v>
-      </c>
-      <c r="U34" t="s">
-        <v>43</v>
-      </c>
-      <c r="V34" t="s">
-        <v>43</v>
-      </c>
-      <c r="X34" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M35">
-        <v>2015</v>
-      </c>
-      <c r="N35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" t="s">
-        <v>44</v>
-      </c>
-      <c r="P35" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>75</v>
-      </c>
-      <c r="R35" t="s">
-        <v>88</v>
-      </c>
-      <c r="S35" t="s">
-        <v>104</v>
-      </c>
-      <c r="T35" t="s">
-        <v>75</v>
-      </c>
-      <c r="U35" t="s">
-        <v>104</v>
-      </c>
-      <c r="V35" t="s">
-        <v>104</v>
-      </c>
-      <c r="X35" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M36">
-        <v>2016</v>
-      </c>
-      <c r="N36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" t="s">
-        <v>45</v>
-      </c>
-      <c r="P36" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>76</v>
-      </c>
-      <c r="R36" t="s">
-        <v>89</v>
-      </c>
-      <c r="S36" t="s">
-        <v>89</v>
-      </c>
-      <c r="T36" t="s">
-        <v>115</v>
-      </c>
-      <c r="U36" t="s">
-        <v>89</v>
-      </c>
-      <c r="V36" t="s">
-        <v>89</v>
-      </c>
-      <c r="X36" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M37">
-        <v>2017</v>
-      </c>
-      <c r="N37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P37" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>77</v>
-      </c>
-      <c r="R37" t="s">
-        <v>90</v>
-      </c>
-      <c r="S37" t="s">
-        <v>63</v>
-      </c>
-      <c r="T37" t="s">
-        <v>116</v>
-      </c>
-      <c r="U37" t="s">
-        <v>63</v>
-      </c>
-      <c r="V37" t="s">
-        <v>63</v>
-      </c>
-      <c r="X37" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M38">
-        <v>2018</v>
-      </c>
-      <c r="N38" t="s">
-        <v>154</v>
-      </c>
-      <c r="O38" t="s">
-        <v>47</v>
-      </c>
-      <c r="P38" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>78</v>
-      </c>
-      <c r="R38" t="s">
-        <v>91</v>
-      </c>
-      <c r="S38" t="s">
-        <v>47</v>
-      </c>
-      <c r="T38" t="s">
-        <v>47</v>
-      </c>
-      <c r="U38" t="s">
-        <v>47</v>
-      </c>
-      <c r="V38" t="s">
-        <v>47</v>
-      </c>
-      <c r="X38" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M39">
-        <v>2019</v>
-      </c>
-      <c r="N39" t="s">
-        <v>154</v>
-      </c>
-      <c r="O39" t="s">
-        <v>48</v>
-      </c>
-      <c r="P39" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>79</v>
-      </c>
-      <c r="R39" t="s">
-        <v>92</v>
-      </c>
-      <c r="S39" t="s">
-        <v>105</v>
-      </c>
-      <c r="T39" t="s">
-        <v>117</v>
-      </c>
-      <c r="U39" t="s">
-        <v>48</v>
-      </c>
-      <c r="V39" t="s">
-        <v>131</v>
-      </c>
-      <c r="X39" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M40">
-        <v>2020</v>
-      </c>
-      <c r="N40" t="s">
-        <v>154</v>
-      </c>
-      <c r="O40" t="s">
-        <v>153</v>
-      </c>
-      <c r="P40" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>153</v>
-      </c>
-      <c r="R40" t="s">
-        <v>153</v>
-      </c>
-      <c r="S40" t="s">
-        <v>153</v>
-      </c>
-      <c r="T40" t="s">
-        <v>153</v>
-      </c>
-      <c r="U40" t="s">
-        <v>153</v>
-      </c>
-      <c r="V40" t="s">
-        <v>153</v>
-      </c>
-      <c r="X40" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M41">
-        <v>2021</v>
-      </c>
-      <c r="N41" t="s">
-        <v>154</v>
-      </c>
-      <c r="O41" t="s">
-        <v>192</v>
-      </c>
-      <c r="P41" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>192</v>
-      </c>
-      <c r="R41" t="s">
-        <v>192</v>
-      </c>
-      <c r="S41" t="s">
-        <v>192</v>
-      </c>
-      <c r="T41" t="s">
-        <v>192</v>
-      </c>
-      <c r="U41" t="s">
-        <v>192</v>
-      </c>
-      <c r="V41" t="s">
-        <v>192</v>
-      </c>
-      <c r="X41" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M42">
-        <v>2022</v>
-      </c>
-      <c r="N42" t="s">
-        <v>154</v>
-      </c>
-      <c r="O42" t="s">
-        <v>193</v>
-      </c>
-      <c r="P42" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>194</v>
-      </c>
-      <c r="R42" t="s">
-        <v>193</v>
-      </c>
-      <c r="S42" t="s">
-        <v>193</v>
-      </c>
-      <c r="T42" t="s">
-        <v>193</v>
-      </c>
-      <c r="U42" t="s">
-        <v>193</v>
-      </c>
-      <c r="V42" t="s">
-        <v>193</v>
-      </c>
-      <c r="X42" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M43">
-        <v>2023</v>
-      </c>
-      <c r="N43" t="s">
-        <v>154</v>
-      </c>
-      <c r="O43" t="s">
-        <v>197</v>
-      </c>
-      <c r="P43" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>198</v>
-      </c>
-      <c r="R43" t="s">
-        <v>199</v>
-      </c>
-      <c r="S43" t="s">
-        <v>200</v>
-      </c>
-      <c r="T43" t="s">
-        <v>197</v>
-      </c>
-      <c r="U43" t="s">
-        <v>197</v>
-      </c>
-      <c r="V43" t="s">
-        <v>197</v>
-      </c>
-      <c r="X43" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M44" t="s">
-        <v>156</v>
-      </c>
-      <c r="N44" t="s">
-        <v>157</v>
-      </c>
-      <c r="O44" t="s">
-        <v>158</v>
-      </c>
-      <c r="P44" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>160</v>
-      </c>
-      <c r="R44" t="s">
-        <v>161</v>
-      </c>
-      <c r="S44" t="s">
-        <v>162</v>
-      </c>
-      <c r="T44" s="42">
-        <v>1</v>
-      </c>
-      <c r="U44" s="42">
-        <v>2</v>
-      </c>
-      <c r="W44" t="s">
-        <v>163</v>
-      </c>
-      <c r="X44" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="13:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M45" t="s">
-        <v>202</v>
-      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+    </row>
+    <row r="44" spans="20:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12639,7 +11261,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I17:I22 I23:J23">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12656,7 +11278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4 I6:I12 I14:I16 J24">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12673,7 +11295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J3 J4:J22">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12690,7 +11312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12707,7 +11329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12724,7 +11346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12741,7 +11363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12758,7 +11380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I24))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12775,7 +11397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I28">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12792,7 +11414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:J28">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12834,13 +11456,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12848,10 +11470,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12859,10 +11481,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12870,10 +11492,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12881,10 +11503,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12892,10 +11514,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -12903,10 +11525,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F482FA75-41EA-4FEB-B057-E1719CC848DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA208F7-4E8F-47F2-A7E6-415CEF50C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="710" yWindow="1460" windowWidth="28730" windowHeight="19540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -3468,7 +3468,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H3 H8:H9 H11:H12 H20:H22 H14:H18">
+  <conditionalFormatting sqref="H3 H6 H8:H9 H11:H12 H20:H22 H14:H18">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6658,7 +6658,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H8:H9 H19 H14:H17 H21 I22:I23">
+  <conditionalFormatting sqref="H3 H5 H8:H9 H19 H14:H17 H21 I22:I23">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7906,7 +7906,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(I4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 I4 I8:I17 J24">
+  <conditionalFormatting sqref="I4 I6 I8:I17 J24">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8098,11 +8098,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8187,14 +8187,14 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="str">
         <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="L3" s="5"/>
     </row>
@@ -9022,7 +9022,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H6 H15:H16 H3 H18:H21 H11:H13 I23">
+  <conditionalFormatting sqref="H6 H8 H15:H16 H3 H18:H21 H11:H13 I23">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10278,8 +10278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G34" sqref="G34"/>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Regular#[1999-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Regular#[1999-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA208F7-4E8F-47F2-A7E6-415CEF50C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544140E-FA11-4BCE-9153-A83742915ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="710" yWindow="1460" windowWidth="28730" windowHeight="19540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -634,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="164">
   <si>
     <t>-</t>
   </si>
@@ -648,12 +658,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -1038,9 +1042,6 @@
     <t xml:space="preserve">Obv: Philippe </t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>eurocollection</t>
   </si>
   <si>
@@ -1054,9 +1055,6 @@
   </si>
   <si>
     <t>Obv: Large stars</t>
-  </si>
-  <si>
-    <t>Subtype_4</t>
   </si>
   <si>
     <t>Obv: Normal stars</t>
@@ -1122,6 +1120,24 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_3#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1213,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1363,7 +1381,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1437,6 +1455,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2559,69 +2580,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="35"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="36"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>157</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -2630,19 +2650,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
@@ -2663,19 +2683,19 @@
         <v>1999</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>0</v>
@@ -2696,17 +2716,17 @@
         <v>2000</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>0</v>
@@ -2727,17 +2747,17 @@
         <v>2001</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>0</v>
@@ -2758,17 +2778,17 @@
         <v>2002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>0</v>
@@ -2790,17 +2810,17 @@
         <v>2003</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>0</v>
@@ -2822,17 +2842,17 @@
         <v>2004</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>0</v>
@@ -2853,17 +2873,17 @@
         <v>2005</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>0</v>
@@ -2884,17 +2904,17 @@
         <v>2006</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>0</v>
@@ -2915,17 +2935,17 @@
         <v>2007</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>0</v>
@@ -2946,17 +2966,17 @@
         <v>2008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>0</v>
@@ -2977,17 +2997,17 @@
         <v>2009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -3008,17 +3028,17 @@
         <v>2010</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>0</v>
@@ -3039,17 +3059,17 @@
         <v>2011</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>0</v>
@@ -3070,17 +3090,17 @@
         <v>2012</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>0</v>
@@ -3101,17 +3121,17 @@
         <v>2013</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>0</v>
@@ -3132,17 +3152,17 @@
         <v>2014</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>0</v>
@@ -3163,17 +3183,17 @@
         <v>2015</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>0</v>
@@ -3194,17 +3214,17 @@
         <v>2016</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>0</v>
@@ -3225,17 +3245,17 @@
         <v>2017</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>0</v>
@@ -3256,20 +3276,20 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>0</v>
@@ -3287,20 +3307,20 @@
         <v>2019</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H24" s="25" t="s">
         <v>0</v>
@@ -3318,20 +3338,20 @@
         <v>2020</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>0</v>
@@ -3349,20 +3369,20 @@
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>0</v>
@@ -3380,20 +3400,20 @@
         <v>2022</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H27" s="25" t="s">
         <v>0</v>
@@ -3411,20 +3431,20 @@
         <v>2023</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>0</v>
@@ -3438,9 +3458,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
@@ -3630,61 +3650,61 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="35"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="36"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>157</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3693,16 +3713,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>0</v>
@@ -3724,16 +3744,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>0</v>
@@ -3755,16 +3775,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>0</v>
@@ -3785,16 +3805,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>0</v>
@@ -3815,16 +3835,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>0</v>
@@ -3845,16 +3865,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>0</v>
@@ -3875,16 +3895,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>0</v>
@@ -3905,16 +3925,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>0</v>
@@ -3935,16 +3955,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>0</v>
@@ -3965,16 +3985,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>0</v>
@@ -3995,16 +4015,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>0</v>
@@ -4025,16 +4045,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>0</v>
@@ -4055,16 +4075,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>0</v>
@@ -4085,16 +4105,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>0</v>
@@ -4115,16 +4135,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>0</v>
@@ -4145,16 +4165,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>0</v>
@@ -4175,16 +4195,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>0</v>
@@ -4205,16 +4225,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>0</v>
@@ -4235,16 +4255,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="E21" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>0</v>
@@ -4265,19 +4285,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -4295,19 +4315,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -4325,19 +4345,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -4355,19 +4375,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -4385,19 +4405,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -4415,19 +4435,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -4441,10 +4461,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
@@ -4667,61 +4687,61 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="35"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="36"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>157</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4730,16 +4750,16 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>0</v>
@@ -4761,16 +4781,16 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>0</v>
@@ -4792,16 +4812,16 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>0</v>
@@ -4822,16 +4842,16 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>0</v>
@@ -4852,16 +4872,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>0</v>
@@ -4882,16 +4902,16 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>0</v>
@@ -4912,16 +4932,16 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>0</v>
@@ -4942,16 +4962,16 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>0</v>
@@ -4972,16 +4992,16 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>0</v>
@@ -5002,16 +5022,16 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>0</v>
@@ -5032,16 +5052,16 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>0</v>
@@ -5062,16 +5082,16 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>0</v>
@@ -5092,16 +5112,16 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>0</v>
@@ -5122,16 +5142,16 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>0</v>
@@ -5152,16 +5172,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>0</v>
@@ -5182,16 +5202,16 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="27" t="s">
         <v>0</v>
@@ -5212,16 +5232,16 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>0</v>
@@ -5242,16 +5262,16 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>0</v>
@@ -5272,16 +5292,16 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>0</v>
@@ -5302,19 +5322,19 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -5332,19 +5352,19 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -5362,19 +5382,19 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -5392,19 +5412,19 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -5422,19 +5442,19 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -5452,19 +5472,19 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -5478,10 +5498,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
@@ -5738,65 +5758,64 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -5805,19 +5824,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
@@ -5839,19 +5858,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>0</v>
@@ -5873,19 +5892,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>0</v>
@@ -5906,19 +5925,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>0</v>
@@ -5939,19 +5958,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>0</v>
@@ -5972,19 +5991,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>0</v>
@@ -6005,19 +6024,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>0</v>
@@ -6038,19 +6057,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>0</v>
@@ -6071,19 +6090,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>0</v>
@@ -6104,19 +6123,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>0</v>
@@ -6137,19 +6156,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>0</v>
@@ -6170,19 +6189,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -6203,19 +6222,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>0</v>
@@ -6236,19 +6255,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>0</v>
@@ -6269,19 +6288,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>0</v>
@@ -6302,19 +6321,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>0</v>
@@ -6335,19 +6354,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>0</v>
@@ -6368,19 +6387,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>0</v>
@@ -6401,19 +6420,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>0</v>
@@ -6434,22 +6453,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
@@ -6467,22 +6486,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -6500,22 +6519,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -6533,22 +6552,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
@@ -6566,22 +6585,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -6599,22 +6618,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
@@ -6628,10 +6647,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
@@ -6922,67 +6941,68 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="24.81640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="3.6328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -6991,20 +7011,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>0</v>
@@ -7026,20 +7046,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>0</v>
@@ -7061,20 +7081,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>0</v>
@@ -7095,22 +7115,22 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>0</v>
@@ -7131,22 +7151,22 @@
         <v>2002</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>0</v>
@@ -7167,20 +7187,20 @@
         <v>2003</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>0</v>
@@ -7201,20 +7221,20 @@
         <v>2004</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>0</v>
@@ -7235,20 +7255,20 @@
         <v>2005</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>0</v>
@@ -7269,20 +7289,20 @@
         <v>2006</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>0</v>
@@ -7303,20 +7323,20 @@
         <v>2007</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>0</v>
@@ -7337,20 +7357,20 @@
         <v>2008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>0</v>
@@ -7371,20 +7391,20 @@
         <v>2009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>0</v>
@@ -7405,20 +7425,20 @@
         <v>2010</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>0</v>
@@ -7439,20 +7459,20 @@
         <v>2011</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>0</v>
@@ -7473,20 +7493,20 @@
         <v>2012</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>0</v>
@@ -7507,20 +7527,20 @@
         <v>2013</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>0</v>
@@ -7541,20 +7561,20 @@
         <v>2014</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>0</v>
@@ -7575,20 +7595,20 @@
         <v>2015</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>0</v>
@@ -7609,20 +7629,20 @@
         <v>2016</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>0</v>
@@ -7643,20 +7663,20 @@
         <v>2017</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="27" t="s">
         <v>0</v>
@@ -7677,23 +7697,23 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>0</v>
@@ -7711,23 +7731,23 @@
         <v>2019</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>0</v>
@@ -7745,23 +7765,23 @@
         <v>2020</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>0</v>
@@ -7779,23 +7799,23 @@
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>0</v>
@@ -7813,23 +7833,23 @@
         <v>2022</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>0</v>
@@ -7847,23 +7867,23 @@
         <v>2023</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
@@ -7877,9 +7897,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -8098,69 +8118,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -8169,19 +8188,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
@@ -8203,19 +8222,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>0</v>
@@ -8237,19 +8256,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>0</v>
@@ -8270,19 +8289,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>0</v>
@@ -8303,19 +8322,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>0</v>
@@ -8336,19 +8355,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>0</v>
@@ -8369,19 +8388,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>0</v>
@@ -8402,19 +8421,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>0</v>
@@ -8435,19 +8454,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>0</v>
@@ -8468,19 +8487,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>0</v>
@@ -8501,19 +8520,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>0</v>
@@ -8534,19 +8553,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -8567,19 +8586,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>0</v>
@@ -8600,19 +8619,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>0</v>
@@ -8633,19 +8652,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>0</v>
@@ -8666,19 +8685,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>0</v>
@@ -8699,19 +8718,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>0</v>
@@ -8732,19 +8751,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>0</v>
@@ -8765,19 +8784,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>0</v>
@@ -8798,22 +8817,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
@@ -8831,22 +8850,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -8864,22 +8883,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -8897,22 +8916,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
@@ -8930,22 +8949,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -8963,22 +8982,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
@@ -8992,10 +9011,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
@@ -9022,7 +9041,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H8 H15:H16 H3 H18:H21 H11:H13 I23">
+  <conditionalFormatting sqref="H8 H6 H15:H16 H3 H18:H21 H11:H13 I23">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9218,65 +9237,64 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.453125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="3.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="3.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -9285,19 +9303,19 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
@@ -9318,19 +9336,19 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>0</v>
@@ -9352,19 +9370,19 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>0</v>
@@ -9385,19 +9403,19 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>0</v>
@@ -9418,19 +9436,19 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>0</v>
@@ -9451,19 +9469,19 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>0</v>
@@ -9484,19 +9502,19 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>0</v>
@@ -9517,19 +9535,19 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>0</v>
@@ -9550,19 +9568,19 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>0</v>
@@ -9583,19 +9601,19 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>0</v>
@@ -9616,19 +9634,19 @@
         <v>2009</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>0</v>
@@ -9649,19 +9667,19 @@
         <v>2010</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>0</v>
@@ -9682,19 +9700,19 @@
         <v>2011</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>0</v>
@@ -9715,19 +9733,19 @@
         <v>2012</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>0</v>
@@ -9748,19 +9766,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>0</v>
@@ -9781,19 +9799,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>0</v>
@@ -9814,19 +9832,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>0</v>
@@ -9847,19 +9865,19 @@
         <v>2016</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>0</v>
@@ -9880,19 +9898,19 @@
         <v>2017</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="F21" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>0</v>
@@ -9913,22 +9931,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
@@ -9946,22 +9964,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>0</v>
@@ -9979,22 +9997,22 @@
         <v>2020</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>0</v>
@@ -10012,22 +10030,22 @@
         <v>2021</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
@@ -10045,22 +10063,22 @@
         <v>2022</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -10078,22 +10096,22 @@
         <v>2023</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
@@ -10107,10 +10125,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
@@ -10282,69 +10300,68 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="24.81640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="3.6328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="43">
+        <v>2</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="42">
-        <v>2</v>
-      </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -10353,20 +10370,20 @@
         <v>1999</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>0</v>
@@ -10388,20 +10405,20 @@
         <v>2000</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>0</v>
@@ -10424,20 +10441,20 @@
         <v>2001</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>0</v>
@@ -10458,20 +10475,20 @@
         <v>2002</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>0</v>
@@ -10492,20 +10509,20 @@
         <v>2003</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>0</v>
@@ -10526,20 +10543,20 @@
         <v>2004</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>0</v>
@@ -10560,20 +10577,20 @@
         <v>2005</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>0</v>
@@ -10594,20 +10611,20 @@
         <v>2006</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>0</v>
@@ -10628,20 +10645,20 @@
         <v>2007</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>0</v>
@@ -10662,22 +10679,22 @@
         <v>2008</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>0</v>
@@ -10698,22 +10715,22 @@
         <v>2008</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>0</v>
@@ -10734,20 +10751,20 @@
         <v>2009</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>0</v>
@@ -10768,20 +10785,20 @@
         <v>2010</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>0</v>
@@ -10802,20 +10819,20 @@
         <v>2011</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>0</v>
@@ -10838,20 +10855,20 @@
         <v>2012</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>0</v>
@@ -10872,20 +10889,20 @@
         <v>2013</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>0</v>
@@ -10906,20 +10923,20 @@
         <v>2014</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="27" t="s">
         <v>0</v>
@@ -10940,20 +10957,20 @@
         <v>2015</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>0</v>
@@ -10974,20 +10991,20 @@
         <v>2016</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>0</v>
@@ -11008,20 +11025,20 @@
         <v>2017</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H22" s="27" t="s">
         <v>0</v>
@@ -11042,23 +11059,23 @@
         <v>2018</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>0</v>
@@ -11076,23 +11093,23 @@
         <v>2019</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>0</v>
@@ -11112,23 +11129,23 @@
         <v>2020</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>0</v>
@@ -11146,23 +11163,23 @@
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>0</v>
@@ -11180,23 +11197,23 @@
         <v>2022</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>0</v>
@@ -11214,23 +11231,23 @@
         <v>2023</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
@@ -11252,9 +11269,9 @@
       <c r="U44" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:H2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -11456,13 +11473,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11470,10 +11487,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11481,10 +11498,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11492,10 +11509,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11503,10 +11520,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11514,10 +11531,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11525,10 +11542,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
